--- a/Android/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Android/ETH_web3_infura_etherscan.io_API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="28160" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 根据元数据Keystore解析钱包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 连接Eth客户端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,35 +329,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>web3j.ethGetTransactionByHash(transactionHash).send();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 获取余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address=0x07757733653a6670a4f7b8d30704378cb4cf89b2
-public key=17365405121258...
-private key=101233875…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是什么</t>
-    <rPh sb="0" eb="1">
-      <t>shi shen m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以做什么</t>
-    <rPh sb="0" eb="1">
-      <t>ke yi zuo sheh m</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,33 +429,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>private static void loadWallet() throws IOException, CipherException {
-        String walletFilePath = "/Users/catherine.brainwilliam/AndroidOBTExample/eth_wallet_keystore/UTC--2018-11-15T11-31-38.809--07757733653a6670a4f7b8d30704378cb4cf89b2.json";
-        Credentials credentials = WalletUtils.loadCredentials(Constants.password, walletFilePath);
-        String address = credentials.getAddress();
-        BigInteger publicKey = credentials.getEcKeyPair().getPublicKey();
-        BigInteger privateKey = credentials.getEcKeyPair().getPrivateKey();
-        System.out.println("address=" + address);
-        System.out.println("public key=" + publicKey);
-        System.out.println("private key=" + privateKey);
-」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 6. push交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7. 获取交易状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回当前的Geth版本：
-Geth/v1.8.15-omnibus-255989da/linux-amd64/go1.10.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web3j.ethGetBalance(Constants.address, DefaultBlockParameterName.LATEST).sendAsync();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -575,59 +525,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回 EthGetBalance 对象://格式转化 wei-ether</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-String balanceETH = Convert.fromWei(ethGetBalance.getBalance().toString(), Convert.Unit.ETHER).toPlainString().concat("ether");</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Infura暂时没有提供根据address获取交易列表信息，
-所以这里直接通过[Etherscan.io](https://etherscan.io/apis#accounts)去获取交易列表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-http://api.etherscan.io/api?module=account&amp;action=txlist&amp;address=0xddbd2b932c763ba5b1b7ae3b362eac3e8d40121a&amp;startblock=0&amp;endblock=99999999&amp;sort=asc&amp;apikey=YourApiKeyToken</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>{
 "status": "1",
 "message"": "OK,
@@ -1036,58 +933,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1. method Fir:默认用Web3j提供的GasPriceu 以及GasLimit。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Transfer.sendFunds(web3j, credentials, addressTo, amount, Convert.Unit.ETHER).send()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.  method Sec:自定义Gas额度</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-TransactionManager transactionManager = new RawTransactionManager(web3j, credentials);
-        Transfer transfer = new Transfer(web3j, transactionManager);
-transfer.sendFunds(addressTo, amount, Convert.Unit.ETHER, gasPrice, BigInteger.valueOf(21000).send;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>返回：EthTransaction 对象:</t>
     </r>
     <r>
@@ -1123,12 +968,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Success:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">返回当前的Geth版本：
+Geth/v1.8.15-omnibus-255989da/linux-amd64/go1.10.1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Failure:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Invalid response received:
+Okhttp3.internal.http.RealResponseBody@219bd15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Success:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">返回 EthGetBalance 对象://格式转化 wei-ether
+String balanceETH = Convert.fromWei(ethGetBalance.getBalance().toString(), Convert.Unit.ETHER).toPlainString().concat("ether");
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">eg:balanceETH="0 ether"
+Failure:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常的Http请求异常</t>
+    </r>
+    <rPh sb="208" eb="209">
+      <t>zheng chang</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>de</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>yi c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String addressTo="对方的账户地址"；
+String amount=" 需要发送的金额";</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. method Fir:默认用Web3j提供的GasPriceu 以及GasLimit。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Transfer.sendFunds(web3j, credentials, addressTo, amount, Convert.Unit.ETHER).send()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2.  method Sec:自定义Gas额度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String gasPrice="燃料价格"；
+TransactionManager transactionManager = new RawTransactionManager(web3j, credentials);
+        Transfer transfer = new Transfer(web3j, transactionManager);
+transfer.sendFunds(addressTo, amount, Convert.Unit.ETHER, gasPrice, BigInteger.valueOf(21000).send;</t>
+    </r>
+    <rPh sb="18" eb="19">
+      <t>dui fang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>de</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>jin e</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>ran liao</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>jia ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String transactionHash="交易成功返回的hash值";
+web3j.ethGetTransactionByHash(transactionHash).send();</t>
+    <rPh sb="24" eb="25">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fan h</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String address="当前账户的钱包地址";
+web3j.ethGetBalance(address, DefaultBlockParameterName.LATEST).sendAsync();</t>
+    <rPh sb="16" eb="17">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>di zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 根据Keystore解析钱包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>private static void createAccount() throws NoSuchAlgorithmException,
             NoSuchProviderException, InvalidAlgorithmParameterException,
             CipherException, IOException {
            NoSuchProviderException, InvalidAlgorithmParameterException,
             CipherException, IOException {
+        String password="123456";
         String walletFileName = "";</t>
     </r>
     <r>
@@ -1176,9 +1278,110 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-        walletFileName = WalletUtils.generateNewWalletFile(Constants.password, new File(walletFilePath), true);
+        walletFileName = WalletUtils.generateNewWalletFile(password, new File(walletFilePath), true);
         System.out.println("walletName: " + walletFileName);
     }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address=0x07757733653a6670a4f7b8d30704378cb4cf89b2
+public key=17365405121258...
+private key=101233875…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private static void loadWallet() throws IOException, CipherException {
+        String password="123456";//同创建钱包时的密码一致
+        String walletFilePath = "/Users/catherine.brainwilliam/AndroidOBTExample/eth_wallet_keystore/UTC--2018-11-15T11-31-38.809--07757733653a6670a4f7b8d30704378cb4cf89b2.json";
+        Credentials credentials = WalletUtils.loadCredentials(password, walletFilePath);
+        String address = credentials.getAddress();
+        BigInteger publicKey = credentials.getEcKeyPair().getPublicKey();
+        BigInteger privateKey = credentials.getEcKeyPair().getPrivateKey();
+        System.out.println("address=" + address);
+        System.out.println("public key=" + publicKey);
+        System.out.println("private key=" + privateKey);
+}</t>
+    <rPh sb="106" eb="107">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>qian bnao</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>de</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Infura暂时没有提供根据address获取交易列表信息，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所以这里直接通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://etherscan.io/apis#accounts</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去获取交易列表
+http://api.etherscan.io/api?module=account&amp;action=txlist&amp;address=0xddbd2b932c763ba5b1b7ae3b362eac3e8d40121a&amp;startblock=0&amp;endblock=99999999&amp;sort=asc&amp;apikey=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ApiKey</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1429,26 +1632,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1459,44 +1647,11 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1524,6 +1679,54 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1546,13 +1749,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>102627</xdr:colOff>
+      <xdr:colOff>333536</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>551616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2360405</xdr:colOff>
+      <xdr:colOff>2591314</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1500909</xdr:rowOff>
     </xdr:to>
@@ -1563,7 +1766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="102627" y="8902828"/>
+          <a:off x="333536" y="9595555"/>
           <a:ext cx="2257778" cy="1808788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1787,16 +1990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2732425</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>141113</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>372021</xdr:rowOff>
+      <xdr:rowOff>487475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5759899</xdr:colOff>
+      <xdr:colOff>6875959</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2552827</xdr:rowOff>
+      <xdr:rowOff>2668281</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1805,8 +2008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2732425" y="9415960"/>
-          <a:ext cx="6337171" cy="3040301"/>
+          <a:off x="3309699" y="9531414"/>
+          <a:ext cx="6734846" cy="3040301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2504,15 +2707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6221717</xdr:colOff>
+      <xdr:colOff>8222930</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>141110</xdr:rowOff>
+      <xdr:rowOff>128281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10070202</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1295657</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1526565</xdr:rowOff>
+      <xdr:rowOff>1513736</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2521,8 +2724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9043939" y="9351817"/>
-          <a:ext cx="3848485" cy="1385455"/>
+          <a:off x="11391516" y="10031715"/>
+          <a:ext cx="3848484" cy="1385455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2731,16 +2934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10698789</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2398889</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>525960</xdr:rowOff>
+      <xdr:rowOff>615758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3014647</xdr:colOff>
+      <xdr:colOff>5490505</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2116667</xdr:rowOff>
+      <xdr:rowOff>2206465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2749,7 +2952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13521011" y="8877172"/>
+          <a:off x="16343232" y="9659697"/>
           <a:ext cx="3091616" cy="2450202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3066,13 +3269,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4040909</xdr:colOff>
+      <xdr:colOff>6786161</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>551616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1783131</xdr:colOff>
+      <xdr:colOff>1783130</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1231515</xdr:rowOff>
     </xdr:to>
@@ -3083,8 +3286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18126364" y="9762323"/>
-          <a:ext cx="3450807" cy="679899"/>
+          <a:off x="20730504" y="10455050"/>
+          <a:ext cx="3412323" cy="679899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3159,15 +3362,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2411717</xdr:colOff>
+      <xdr:colOff>2655454</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>474646</xdr:rowOff>
+      <xdr:rowOff>487474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2693940</xdr:colOff>
+      <xdr:colOff>3143571</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>959278</xdr:rowOff>
+      <xdr:rowOff>972106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3176,8 +3379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2411717" y="9685353"/>
-          <a:ext cx="282223" cy="484632"/>
+          <a:off x="2655454" y="10390908"/>
+          <a:ext cx="488117" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3213,15 +3416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5875354</xdr:colOff>
+      <xdr:colOff>7017071</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>551616</xdr:rowOff>
+      <xdr:rowOff>628586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6157577</xdr:colOff>
+      <xdr:colOff>8056161</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1036248</xdr:rowOff>
+      <xdr:rowOff>1113218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3230,62 +3433,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8697576" y="9762323"/>
-          <a:ext cx="282223" cy="484632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10261087</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>614218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10543310</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1098850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="右箭头 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13083309" y="9824925"/>
-          <a:ext cx="282223" cy="484632"/>
+          <a:off x="10185657" y="10532020"/>
+          <a:ext cx="1039090" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3321,15 +3470,69 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3130101</xdr:colOff>
+      <xdr:colOff>1565050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>667072</xdr:rowOff>
+      <xdr:rowOff>588563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3886968</xdr:colOff>
+      <xdr:colOff>2270605</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1151704</xdr:rowOff>
+      <xdr:rowOff>1073195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右箭头 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15509393" y="10491997"/>
+          <a:ext cx="705555" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5798384</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>641415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6555251</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1126047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3338,7 +3541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17215556" y="9877779"/>
+          <a:off x="19742727" y="10544849"/>
           <a:ext cx="756867" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3375,15 +3578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3741666</xdr:colOff>
+      <xdr:colOff>4836426</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1303849</xdr:rowOff>
+      <xdr:rowOff>2024041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4226298</xdr:colOff>
+      <xdr:colOff>7878418</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3252799</xdr:rowOff>
+      <xdr:rowOff>2508673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3391,9 +3594,592 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="7917343">
-          <a:off x="17094962" y="11246715"/>
-          <a:ext cx="1948950" cy="484632"/>
+        <a:xfrm rot="8782578">
+          <a:off x="18780769" y="11927475"/>
+          <a:ext cx="3041992" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>256566</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>551617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2847879</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2334748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3566263" y="33366364"/>
+          <a:ext cx="2591313" cy="1783131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>ApiKey</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>https://etherscan.io</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>上面注册一个账号：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="STKaiti" charset="-122"/>
+            <a:ea typeface="STKaiti" charset="-122"/>
+            <a:cs typeface="STKaiti" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Name:OrangeBlock</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Email:it@orangeblock.tech</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Pwd:qazwsx888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4618182</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>577273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10018889</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2334749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7927879" y="33392020"/>
+          <a:ext cx="5400707" cy="1757476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>ApiKey</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Step2:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>登录账户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="STKaiti" charset="-122"/>
+            <a:ea typeface="STKaiti" charset="-122"/>
+            <a:cs typeface="STKaiti" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>在账户的左下角「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Developers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>」栏目下面点击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>API_KEYS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>。然后点击「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Create Api</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t> Keys</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>例如：「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>ETHDemo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>」，就会看到页面上会生成一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>Api key:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STKaiti" charset="-122"/>
+              <a:ea typeface="STKaiti" charset="-122"/>
+              <a:cs typeface="STKaiti" charset="-122"/>
+            </a:rPr>
+            <a:t>VF9HZJ1EMJPZ824IWY6X9GV8SRC14J5YKZ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="STKaiti" charset="-122"/>
+            <a:ea typeface="STKaiti" charset="-122"/>
+            <a:cs typeface="STKaiti" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3219898</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1141718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4271817</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1626350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右箭头 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6529595" y="33956465"/>
+          <a:ext cx="1051919" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3709,54 +4495,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3831,34 +4617,34 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3890,46 +4676,46 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3947,17 +4733,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="99" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A20" sqref="A20"/>
-      <selection pane="topRight" activeCell="A22" sqref="A22:A23"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="2" width="141.33203125" customWidth="1"/>
-    <col min="3" max="3" width="84.33203125" customWidth="1"/>
+    <col min="3" max="3" width="110.5" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" hidden="1" customWidth="1"/>
@@ -3965,233 +4751,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="320" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="320" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="4" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" ht="257" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="261" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="263" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="B22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="257" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="261" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="263" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="C24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="25" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C18:C19"/>
@@ -4199,24 +5003,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Android/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Android/ETH_web3_infura_etherscan.io_API.xlsx
@@ -443,48 +443,6 @@
   </si>
   <si>
     <r>
-      <t>{
-  "address": "07757733653a6670a4f7b8d30704378cb4cf89b2",</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>//地址 (base64)格式</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-  "id": "428e5938-f0b3...",
-  "version": 3,
-  "crypto": {
-    "cipher": "aes-128-ctr",
-    "ciphertext": "275e9e1c3...",
-    "cipherparams": {...  },
-    "kdf": "scrypt",
-    "kdfparams": {
-     ...
-    },
-    "mac": "1b2062c587a..."
-  }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>web3j = Web3jFactory.build(new HttpService("https://mainnet.infura.io/v3/7c4ebc9898924f0aa003ab19df9c36eb"));</t>
     </r>
     <r>
@@ -1282,12 +1240,6 @@
         System.out.println("walletName: " + walletFileName);
     }</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address=0x07757733653a6670a4f7b8d30704378cb4cf89b2
-public key=17365405121258...
-private key=101233875…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1383,6 +1335,61 @@
       </rPr>
       <t>ApiKey</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+"address": "07757733653a6670a4f7b8d30704378cb4cf89b2",</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//地址 (base64)格式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"id": "428e5938-f0b3-41be-9957-de7c014581fb",
+"version": 3,
+"crypto": {
+"cipher": "aes-128-ctr",
+"ciphertext": "275e9e1c3ad350b5ac9b85d1cb826ea1a786817ee58bc096016f1f91e8be6d81",
+"cipherparams": {
+"iv": "cd8c8e0089f105a2575699be756b9a01"
+},
+"kdf": "scrypt",
+"kdfparams": {
+"dklen": 32,
+"n": 4096,
+"p": 6,
+"r": 8,
+"salt": "6dc98ae0c90c575529417ac932f6a91edaa2f7bdb0a7827edec7843803b953be"
+},
+"mac": "1b2062c587a2ba1444dc574d1f8d2c65c40ef36ad45f8cda851cf142e79620ac"
+}
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address=0x07757733653a6670a4f7b8d30704378cb4cf89b2
+public key=17365405121258982484088133841217318985660398481639565321584937261291270894986884977166
+12213617225093943505885355351400581745592287711732477339506278229685
+private key=101233875057005438239658919013501011727368307284946832848498204629504449734998</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1584,7 +1591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1602,6 +1609,32 @@
       <top style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </bottom>
@@ -1691,8 +1724,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1703,29 +1745,20 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3269,15 +3302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6786161</xdr:colOff>
+      <xdr:colOff>6786162</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>551616</xdr:rowOff>
+      <xdr:rowOff>692727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1783130</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11455658</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1231515</xdr:rowOff>
+      <xdr:rowOff>1064748</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3286,8 +3319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20730504" y="10455050"/>
-          <a:ext cx="3412323" cy="679899"/>
+          <a:off x="20730505" y="10596161"/>
+          <a:ext cx="4669496" cy="372021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4733,17 +4766,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="99" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="99" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:D10"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="2" width="141.33203125" customWidth="1"/>
-    <col min="3" max="3" width="110.5" customWidth="1"/>
+    <col min="3" max="3" width="163.1640625" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" hidden="1" customWidth="1"/>
@@ -4755,10 +4788,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>36</v>
@@ -4779,13 +4812,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -4793,9 +4826,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="14" t="s">
         <v>43</v>
       </c>
@@ -4841,16 +4874,16 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="257" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -4865,119 +4898,128 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="394" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C14" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="263" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="261" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="35"/>
-    </row>
-    <row r="14" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="C16" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+    </row>
+    <row r="18" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="263" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="30" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+    </row>
+    <row r="22" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="29" t="s">
+      <c r="C22" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="30" t="s">
+    <row r="23" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4994,15 +5036,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Android/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Android/ETH_web3_infura_etherscan.io_API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 创建钱包元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 6. push交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1179,102 +1175,6 @@
   </si>
   <si>
     <t>2. 根据Keystore解析钱包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>private static void createAccount() throws NoSuchAlgorithmException,
-            NoSuchProviderException, InvalidAlgorithmParameterException,
-            CipherException, IOException {
-           NoSuchProviderException, InvalidAlgorithmParameterException,
-            CipherException, IOException {
-        String password="123456";
-        String walletFileName = "";</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>//文件名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-        String walletFilePath = "/Users/catherine.brainwilliam/AndroidOBTExample/eth_wallet_keystore";
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>//钱包文件保持路径，请替换位自己的某文件夹路径</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-        walletFileName = WalletUtils.generateNewWalletFile(password, new File(walletFilePath), true);
-        System.out.println("walletName: " + walletFileName);
-    }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>private static void loadWallet() throws IOException, CipherException {
-        String password="123456";//同创建钱包时的密码一致
-        String walletFilePath = "/Users/catherine.brainwilliam/AndroidOBTExample/eth_wallet_keystore/UTC--2018-11-15T11-31-38.809--07757733653a6670a4f7b8d30704378cb4cf89b2.json";
-        Credentials credentials = WalletUtils.loadCredentials(password, walletFilePath);
-        String address = credentials.getAddress();
-        BigInteger publicKey = credentials.getEcKeyPair().getPublicKey();
-        BigInteger privateKey = credentials.getEcKeyPair().getPrivateKey();
-        System.out.println("address=" + address);
-        System.out.println("public key=" + publicKey);
-        System.out.println("private key=" + privateKey);
-}</t>
-    <rPh sb="106" eb="107">
-      <t>tong</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>chuang jian</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>qian bnao</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>de</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>mi ma</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>yi zhi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1390,6 +1290,332 @@
 public key=17365405121258982484088133841217318985660398481639565321584937261291270894986884977166
 12213617225093943505885355351400581745592287711732477339506278229685
 private key=101233875057005438239658919013501011727368307284946832848498204629504449734998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 创建钱Keystore数据</t>
+    <rPh sb="14" eb="15">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>private static void createAccount() throws NoSuchAlgorithmException,
+            NoSuchProviderException, InvalidAlgorithmParameterException,
+            CipherException, IOException {
+           NoSuchProviderException, InvalidAlgorithmParameterException,
+            CipherException, IOException {
+        String password="123456";</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//密码,用于创建钱包账户时生成Keystore的必要参数之一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        String walletFileName = "";</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        String walletFilePath = "/Users/catherine.brainwilliam/AndroidOBTExample/eth_wallet_keystore";
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//钱包文件保持路径，请替换为自己的某文件夹路径</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        walletFileName = WalletUtils.generateNewWalletFile(password, new File(walletFilePath), true);
+        System.out.println("walletName: " + walletFileName);
+    }</t>
+    </r>
+    <rPh sb="335" eb="336">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="338" eb="339">
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="340" eb="341">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="342" eb="343">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="344" eb="345">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="346" eb="347">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>sheng cheng</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>de</t>
+    </rPh>
+    <rPh sb="358" eb="359">
+      <t>bi yao</t>
+    </rPh>
+    <rPh sb="360" eb="361">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="362" eb="363">
+      <t>zhi yi</t>
+    </rPh>
+    <rPh sb="531" eb="532">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>private static void loadWallet() throws IOException, CipherException {
+        String password="123456";</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//同创建钱包时的密码一致，解码钱包Keystore数据，通过相同的密码才能成功的加载出钱包公私钥文件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        String walletFilePath = "/Users/catherine.brainwilliam/AndroidOBTExample/eth_wallet_keystore/UTC--2018-11-15T11-31-38.809--07757733653a6670a4f7b8d30704378cb4cf89b2.json";
+        Credentials credentials = WalletUtils.loadCredentials(password, walletFilePath);
+        String address = credentials.getAddress();</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//获取钱包的地址</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        BigInteger publicKey = credentials.getEcKeyPair().getPublicKey();</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//获取钱包的公钥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        BigInteger privateKey = credentials.getEcKeyPair().getPrivateKey();</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//获取钱包的私钥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        System.out.println("address=" + address);
+        System.out.println("public key=" + publicKey);
+        System.out.println("private key=" + privateKey);
+}</t>
+    </r>
+    <rPh sb="106" eb="107">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>qian bnao</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>de</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>jie ma</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>xiang tong</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>de</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>cai neng</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>de</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>jia zai</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>yao shi</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>wen jian</t>
+    </rPh>
+    <rPh sb="476" eb="477">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="478" eb="479">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="480" eb="481">
+      <t>de</t>
+    </rPh>
+    <rPh sb="481" eb="482">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="559" eb="560">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="561" eb="562">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="563" eb="564">
+      <t>de</t>
+    </rPh>
+    <rPh sb="565" eb="566">
+      <t>yao s</t>
+    </rPh>
+    <rPh sb="649" eb="650">
+      <t>si</t>
+    </rPh>
+    <rPh sb="650" eb="651">
+      <t>yao s</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,6 +1950,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,20 +1974,8 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4767,9 +4993,9 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="99" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14:C15"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4788,10 +5014,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>36</v>
@@ -4812,13 +5038,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -4826,9 +5052,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="14" t="s">
         <v>43</v>
       </c>
@@ -4858,7 +5084,7 @@
         <v>52</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -4898,128 +5124,119 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="394" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="263" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>64</v>
+      <c r="B16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>65</v>
+      <c r="B18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>59</v>
+      <c r="B20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>60</v>
+      <c r="A22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>61</v>
+      <c r="A24" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -5036,6 +5253,15 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Android/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Android/ETH_web3_infura_etherscan.io_API.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,18 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 连接Eth客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 获取交易记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 获取余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,14 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6. push交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 获取交易状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际消耗的Gas 个数。应该&lt;=GasLimit.所以如果用户给定的GasLimit=当前ETH的最小限定值（21000），
 那么就会100%的用上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1238,6 +1218,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>address=0x07757733653a6670a4f7b8d30704378cb4cf89b2
+public key=17365405121258982484088133841217318985660398481639565321584937261291270894986884977166
+12213617225093943505885355351400581745592287711732477339506278229685
+private key=101233875057005438239658919013501011727368307284946832848498204629504449734998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 创建钱Keystore数据</t>
+    <rPh sb="14" eb="15">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:创建ETH钱包信息</t>
+    <rPh sb="2" eb="3">
+      <t>chuang j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>private static void createAccount() {
+        try {
+            ECKeyPair ecKeyPair = Keys.createEcKeyPair();
+            System.out.println("PrivateKey:" + ecKeyPair.getPrivateKey());</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//获取钱包的私钥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            System.out.println("PublicKey:" + ecKeyPair.getPublicKey());</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//获取钱包的公钥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            System.out.println("Address:" + Keys.getAddress(ecKeyPair));</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//获取钱包的地址</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        } catch (Exception e) {
+            e.printStackTrace();
+        }
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{
 "address": "07757733653a6670a4f7b8d30704378cb4cf89b2",</t>
@@ -1245,6 +1333,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1256,6 +1345,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1286,20 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address=0x07757733653a6670a4f7b8d30704378cb4cf89b2
-public key=17365405121258982484088133841217318985660398481639565321584937261291270894986884977166
-12213617225093943505885355351400581745592287711732477339506278229685
-private key=101233875057005438239658919013501011727368307284946832848498204629504449734998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 创建钱Keystore数据</t>
-    <rPh sb="14" eb="15">
-      <t>shu ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>private static void createAccount() throws NoSuchAlgorithmException,
             NoSuchProviderException, InvalidAlgorithmParameterException,
@@ -1311,6 +1387,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1322,6 +1399,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1334,6 +1412,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1345,6 +1424,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1358,6 +1438,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1369,6 +1450,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1426,6 +1508,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1437,6 +1520,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1451,6 +1535,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1462,6 +1547,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1474,6 +1560,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1485,6 +1572,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1497,6 +1585,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="华文楷体"/>
@@ -1508,6 +1597,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
@@ -1618,12 +1708,32 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2. 连接Eth客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 获取交易记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 获取余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. push交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 获取交易状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1784,6 +1894,33 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1873,7 +2010,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1938,6 +2075,15 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1949,18 +2095,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1974,16 +2108,46 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3892,13 +4056,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>256566</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>551617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2847879</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>2334748</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4104,13 +4268,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4618182</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>577273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10018889</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>2334749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4421,13 +4585,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3219898</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1141718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4271817</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1626350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4754,54 +4918,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -4876,34 +5040,34 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -4935,46 +5099,46 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4990,12 +5154,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="99" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14:B15"/>
+      <selection pane="topRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5011,109 +5175,109 @@
   <sheetData>
     <row r="1" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="257" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>31</v>
@@ -5124,144 +5288,153 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="38" t="s">
+      <c r="A12" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>70</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="394" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>71</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="263" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
     </row>
-    <row r="16" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:4" ht="374" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="25"/>
     </row>
-    <row r="17" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+    <row r="17" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+    </row>
+    <row r="19" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>64</v>
       </c>
+      <c r="C21" s="35" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+    <row r="22" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
-    <row r="20" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>58</v>
+    <row r="23" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+    <row r="24" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
     </row>
-    <row r="22" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>59</v>
+    <row r="25" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+    <row r="26" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
